--- a/a-place-for-salvador-allende/countries/Belgium.xlsx
+++ b/a-place-for-salvador-allende/countries/Belgium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_641D43F3F613C8A64DF3F0C63918330163F8829B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A6885E9-9412-4893-94E1-3C97D9302972}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_641D43F3F613C8A64DF3F0C63918330163F8829B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A4C5D0-5E4B-4E0C-B561-2397C7225BD1}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -237,11 +237,6 @@
   </si>
   <si>
     <t>abacq date posted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Zeeland
-des Orphelins
-</t>
   </si>
   <si>
     <t>https://www.openstreetmap.org/way/29562164</t>
@@ -779,7 +774,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,22 +906,22 @@
         <v>66</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -979,22 +974,22 @@
         <v>66</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -1002,10 +997,10 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -1020,10 +1015,10 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
         <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
       </c>
       <c r="K4" t="s">
         <v>59</v>
@@ -1040,17 +1035,18 @@
       <c r="Q4" t="s">
         <v>66</v>
       </c>
+      <c r="R4" s="3"/>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="Y4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -1075,14 +1071,11 @@
       <c r="Q5" t="s">
         <v>66</v>
       </c>
-      <c r="R5" t="s">
-        <v>68</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -1114,22 +1107,22 @@
         <v>66</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" t="s">
         <v>92</v>
-      </c>
-      <c r="S6" t="s">
-        <v>93</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -1179,13 +1172,13 @@
         <v>1</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -1238,13 +1231,13 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1294,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -1323,13 +1316,13 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
       </c>
       <c r="L10">
         <v>50.6116788</v>
@@ -1344,13 +1337,13 @@
         <v>6</v>
       </c>
       <c r="Q10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1409,13 +1402,13 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1474,13 +1467,13 @@
         <v>1</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1539,13 +1532,13 @@
         <v>1</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1601,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
